--- a/cr-simulator/data/discharge_data (1).xlsx
+++ b/cr-simulator/data/discharge_data (1).xlsx
@@ -404,46 +404,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>E [V]</v>
+        <v>電源電圧 E [V]</v>
       </c>
       <c r="B1" t="str">
-        <v>R [Ω]</v>
+        <v>抵抗 R [Ω]</v>
       </c>
       <c r="C1" t="str">
-        <v>C [F]</v>
+        <v>静電容量 C [F]</v>
       </c>
       <c r="D1" t="str">
-        <v>sigma_v</v>
+        <v>電圧計測ノイズ強度 sigma_v</v>
       </c>
       <c r="E1" t="str">
-        <v>sigma_i</v>
+        <v>電流計測ノイズ強度 sigma_i</v>
       </c>
       <c r="F1" t="str">
-        <v>t [秒]</v>
+        <v>時間 t [秒]</v>
       </c>
       <c r="G1" t="str">
-        <v>V [V]</v>
+        <v>コンデンサの端子電圧 (理論値) V [V]</v>
       </c>
       <c r="H1" t="str">
         <v>ln(V)</v>
       </c>
       <c r="I1" t="str">
-        <v>V* [V]</v>
+        <v>電流 (理論値) I [A]</v>
       </c>
       <c r="J1" t="str">
+        <v>ln(I)</v>
+      </c>
+      <c r="K1" t="str">
+        <v>コンデンサの端子電圧 (計測値) V* [V]</v>
+      </c>
+      <c r="L1" t="str">
         <v>ln(V*)</v>
       </c>
-      <c r="K1" t="str">
-        <v>I [A]</v>
-      </c>
-      <c r="L1" t="str">
-        <v>ln(-I)</v>
-      </c>
       <c r="M1" t="str">
-        <v>I* [A]</v>
+        <v>電流 (計測値) I* [A]</v>
       </c>
       <c r="N1" t="str">
-        <v>ln(-I*)</v>
+        <v>ln(I*)</v>
       </c>
     </row>
     <row r="2">
@@ -457,10 +457,10 @@
         <v>30</v>
       </c>
       <c r="D2">
-        <v>0.41</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -472,19 +472,19 @@
         <v/>
       </c>
       <c r="I2">
-        <v>20.421046382056524</v>
+        <v>-10</v>
       </c>
       <c r="J2" t="str">
         <v/>
       </c>
       <c r="K2">
-        <v>-10</v>
+        <v>21.0388323462471</v>
       </c>
       <c r="L2" t="str">
         <v/>
       </c>
       <c r="M2">
-        <v>-9.89266682013896</v>
+        <v>-10.006059133233054</v>
       </c>
       <c r="N2" t="str">
         <v/>
@@ -507,28 +507,28 @@
         <v/>
       </c>
       <c r="F3">
-        <v>5.151515151515151</v>
+        <v>1.8181818181818181</v>
       </c>
       <c r="G3">
-        <v>18.354480023919283</v>
+        <v>19.403030073932605</v>
       </c>
       <c r="H3" t="str">
         <v/>
       </c>
       <c r="I3">
-        <v>18.611034165674496</v>
+        <v>-9.701515036966303</v>
       </c>
       <c r="J3" t="str">
         <v/>
       </c>
       <c r="K3">
-        <v>-9.177240011959642</v>
+        <v>19.538017854522543</v>
       </c>
       <c r="L3" t="str">
         <v/>
       </c>
       <c r="M3">
-        <v>-9.152685186597033</v>
+        <v>-10.028087728268035</v>
       </c>
       <c r="N3" t="str">
         <v/>
@@ -551,28 +551,28 @@
         <v/>
       </c>
       <c r="F4">
-        <v>10.303030303030303</v>
+        <v>3.6363636363636362</v>
       </c>
       <c r="G4">
-        <v>16.8443468474226</v>
+        <v>18.82387880249665</v>
       </c>
       <c r="H4" t="str">
         <v/>
       </c>
       <c r="I4">
-        <v>16.843286626626494</v>
+        <v>-9.411939401248326</v>
       </c>
       <c r="J4" t="str">
         <v/>
       </c>
       <c r="K4">
-        <v>-8.4221734237113</v>
+        <v>18.7678997836353</v>
       </c>
       <c r="L4" t="str">
         <v/>
       </c>
       <c r="M4">
-        <v>-8.33968750439567</v>
+        <v>-9.55206025051458</v>
       </c>
       <c r="N4" t="str">
         <v/>
@@ -595,28 +595,28 @@
         <v/>
       </c>
       <c r="F5">
-        <v>15.454545454545455</v>
+        <v>5.454545454545454</v>
       </c>
       <c r="G5">
-        <v>15.458461386349294</v>
+        <v>18.262014325645247</v>
       </c>
       <c r="H5" t="str">
         <v/>
       </c>
       <c r="I5">
-        <v>15.195513185630126</v>
+        <v>-9.131007162822623</v>
       </c>
       <c r="J5" t="str">
         <v/>
       </c>
       <c r="K5">
-        <v>-7.729230693174647</v>
+        <v>16.039625680502947</v>
       </c>
       <c r="L5" t="str">
         <v/>
       </c>
       <c r="M5">
-        <v>-7.844584347032964</v>
+        <v>-9.259834087745597</v>
       </c>
       <c r="N5" t="str">
         <v/>
@@ -639,28 +639,28 @@
         <v/>
       </c>
       <c r="F6">
-        <v>20.606060606060606</v>
+        <v>7.2727272727272725</v>
       </c>
       <c r="G6">
-        <v>14.186601035813784</v>
+        <v>17.716920658554137</v>
       </c>
       <c r="H6" t="str">
         <v/>
       </c>
       <c r="I6">
-        <v>12.847556693008158</v>
+        <v>-8.858460329277069</v>
       </c>
       <c r="J6" t="str">
         <v/>
       </c>
       <c r="K6">
-        <v>-7.093300517906892</v>
+        <v>17.91084492749122</v>
       </c>
       <c r="L6" t="str">
         <v/>
       </c>
       <c r="M6">
-        <v>-7.156611523400303</v>
+        <v>-8.879617890746752</v>
       </c>
       <c r="N6" t="str">
         <v/>
@@ -683,28 +683,28 @@
         <v/>
       </c>
       <c r="F7">
-        <v>25.757575757575758</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="G7">
-        <v>13.019384265957834</v>
+        <v>17.188097217770185</v>
       </c>
       <c r="H7" t="str">
         <v/>
       </c>
       <c r="I7">
-        <v>12.92971381574745</v>
+        <v>-8.594048608885092</v>
       </c>
       <c r="J7" t="str">
         <v/>
       </c>
       <c r="K7">
-        <v>-6.509692132978917</v>
+        <v>16.43511847538525</v>
       </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7">
-        <v>-6.391023407696243</v>
+        <v>-8.34102051268535</v>
       </c>
       <c r="N7" t="str">
         <v/>
@@ -727,28 +727,28 @@
         <v/>
       </c>
       <c r="F8">
-        <v>30.90909090909091</v>
+        <v>10.909090909090908</v>
       </c>
       <c r="G8">
-        <v>11.948201421662606</v>
+        <v>16.675058361503613</v>
       </c>
       <c r="H8" t="str">
         <v/>
       </c>
       <c r="I8">
-        <v>11.419277209633199</v>
+        <v>-8.337529180751806</v>
       </c>
       <c r="J8" t="str">
         <v/>
       </c>
       <c r="K8">
-        <v>-5.974100710831303</v>
+        <v>16.807335330711304</v>
       </c>
       <c r="L8" t="str">
         <v/>
       </c>
       <c r="M8">
-        <v>-6.103176415146041</v>
+        <v>-8.597067406692192</v>
       </c>
       <c r="N8" t="str">
         <v/>
@@ -771,28 +771,28 @@
         <v/>
       </c>
       <c r="F9">
-        <v>36.06060606060606</v>
+        <v>12.727272727272727</v>
       </c>
       <c r="G9">
-        <v>10.965151215783512</v>
+        <v>16.177332943641794</v>
       </c>
       <c r="H9" t="str">
         <v/>
       </c>
       <c r="I9">
-        <v>10.382261352394348</v>
+        <v>-8.088666471820897</v>
       </c>
       <c r="J9" t="str">
         <v/>
       </c>
       <c r="K9">
-        <v>-5.482575607891756</v>
+        <v>16.10231114223804</v>
       </c>
       <c r="L9" t="str">
         <v/>
       </c>
       <c r="M9">
-        <v>-5.581121859536019</v>
+        <v>-8.15650162839667</v>
       </c>
       <c r="N9" t="str">
         <v/>
@@ -815,28 +815,28 @@
         <v/>
       </c>
       <c r="F10">
-        <v>41.21212121212121</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="G10">
-        <v>10.062982447467636</v>
+        <v>15.694463881075118</v>
       </c>
       <c r="H10" t="str">
         <v/>
       </c>
       <c r="I10">
-        <v>10.231967932547239</v>
+        <v>-7.847231940537559</v>
       </c>
       <c r="J10" t="str">
         <v/>
       </c>
       <c r="K10">
-        <v>-5.031491223733818</v>
+        <v>14.163303312924171</v>
       </c>
       <c r="L10" t="str">
         <v/>
       </c>
       <c r="M10">
-        <v>-4.956551261686182</v>
+        <v>-7.645819782130313</v>
       </c>
       <c r="N10" t="str">
         <v/>
@@ -859,28 +859,28 @@
         <v/>
       </c>
       <c r="F11">
-        <v>46.36363636363637</v>
+        <v>16.363636363636363</v>
       </c>
       <c r="G11">
-        <v>9.235040515654754</v>
+        <v>15.226007733937475</v>
       </c>
       <c r="H11" t="str">
         <v/>
       </c>
       <c r="I11">
-        <v>8.500631381661718</v>
+        <v>-7.613003866968738</v>
       </c>
       <c r="J11" t="str">
         <v/>
       </c>
       <c r="K11">
-        <v>-4.617520257827377</v>
+        <v>15.063443707261722</v>
       </c>
       <c r="L11" t="str">
         <v/>
       </c>
       <c r="M11">
-        <v>-4.627224168868494</v>
+        <v>-7.837069310298187</v>
       </c>
       <c r="N11" t="str">
         <v/>
@@ -903,28 +903,28 @@
         <v/>
       </c>
       <c r="F12">
-        <v>51.515151515151516</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="G12">
-        <v>8.475218333233522</v>
+        <v>14.771534298375961</v>
       </c>
       <c r="H12" t="str">
         <v/>
       </c>
       <c r="I12">
-        <v>8.639739382599693</v>
+        <v>-7.385767149187981</v>
       </c>
       <c r="J12" t="str">
         <v/>
       </c>
       <c r="K12">
-        <v>-4.237609166616761</v>
+        <v>15.71901659926583</v>
       </c>
       <c r="L12" t="str">
         <v/>
       </c>
       <c r="M12">
-        <v>-4.284006222565949</v>
+        <v>-7.3666008355791535</v>
       </c>
       <c r="N12" t="str">
         <v/>
@@ -947,28 +947,28 @@
         <v/>
       </c>
       <c r="F13">
-        <v>56.666666666666664</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>7.777911279784458</v>
+        <v>14.330626211475785</v>
       </c>
       <c r="H13" t="str">
         <v/>
       </c>
       <c r="I13">
-        <v>6.815112797261821</v>
+        <v>-7.1653131057378925</v>
       </c>
       <c r="J13" t="str">
         <v/>
       </c>
       <c r="K13">
-        <v>-3.888955639892229</v>
+        <v>13.804577134773682</v>
       </c>
       <c r="L13" t="str">
         <v/>
       </c>
       <c r="M13">
-        <v>-4.020084350570679</v>
+        <v>-6.84629886252967</v>
       </c>
       <c r="N13" t="str">
         <v/>
@@ -991,28 +991,28 @@
         <v/>
       </c>
       <c r="F14">
-        <v>61.81818181818182</v>
+        <v>21.818181818181817</v>
       </c>
       <c r="G14">
-        <v>7.137975860631015</v>
+        <v>13.902878567977574</v>
       </c>
       <c r="H14" t="str">
         <v/>
       </c>
       <c r="I14">
-        <v>6.710057256779606</v>
+        <v>-6.951439283988787</v>
       </c>
       <c r="J14" t="str">
         <v/>
       </c>
       <c r="K14">
-        <v>-3.5689879303155077</v>
+        <v>12.70167969324967</v>
       </c>
       <c r="L14" t="str">
         <v/>
       </c>
       <c r="M14">
-        <v>-3.502572828334096</v>
+        <v>-6.885128148012163</v>
       </c>
       <c r="N14" t="str">
         <v/>
@@ -1035,28 +1035,28 @@
         <v/>
       </c>
       <c r="F15">
-        <v>66.96969696969697</v>
+        <v>23.636363636363637</v>
       </c>
       <c r="G15">
-        <v>6.550691767258501</v>
+        <v>13.487898548435096</v>
       </c>
       <c r="H15" t="str">
         <v/>
       </c>
       <c r="I15">
-        <v>7.217289123931614</v>
+        <v>-6.743949274217548</v>
       </c>
       <c r="J15" t="str">
         <v/>
       </c>
       <c r="K15">
-        <v>-3.2753458836292504</v>
+        <v>12.811096448740587</v>
       </c>
       <c r="L15" t="str">
         <v/>
       </c>
       <c r="M15">
-        <v>-3.2444702699645913</v>
+        <v>-6.737569707402646</v>
       </c>
       <c r="N15" t="str">
         <v/>
@@ -1079,28 +1079,28 @@
         <v/>
       </c>
       <c r="F16">
-        <v>72.12121212121212</v>
+        <v>25.454545454545453</v>
       </c>
       <c r="G16">
-        <v>6.011727059249933</v>
+        <v>13.085305058471903</v>
       </c>
       <c r="H16" t="str">
         <v/>
       </c>
       <c r="I16">
-        <v>5.614384614596517</v>
+        <v>-6.542652529235951</v>
       </c>
       <c r="J16" t="str">
         <v/>
       </c>
       <c r="K16">
-        <v>-3.0058635296249663</v>
+        <v>13.139106622629415</v>
       </c>
       <c r="L16" t="str">
         <v/>
       </c>
       <c r="M16">
-        <v>-3.0733448466128057</v>
+        <v>-6.3092925703350655</v>
       </c>
       <c r="N16" t="str">
         <v/>
@@ -1123,28 +1123,28 @@
         <v/>
       </c>
       <c r="F17">
-        <v>77.27272727272727</v>
+        <v>27.272727272727273</v>
       </c>
       <c r="G17">
-        <v>5.517106210912895</v>
+        <v>12.694728378805637</v>
       </c>
       <c r="H17" t="str">
         <v/>
       </c>
       <c r="I17">
-        <v>5.338533144303218</v>
+        <v>-6.3473641894028185</v>
       </c>
       <c r="J17" t="str">
         <v/>
       </c>
       <c r="K17">
-        <v>-2.7585531054564476</v>
+        <v>12.228886260149887</v>
       </c>
       <c r="L17" t="str">
         <v/>
       </c>
       <c r="M17">
-        <v>-2.689177626769003</v>
+        <v>-6.367271603759274</v>
       </c>
       <c r="N17" t="str">
         <v/>
@@ -1167,28 +1167,28 @@
         <v/>
       </c>
       <c r="F18">
-        <v>82.42424242424242</v>
+        <v>29.09090909090909</v>
       </c>
       <c r="G18">
-        <v>5.0631807869020875</v>
+        <v>12.315809825718574</v>
       </c>
       <c r="H18" t="str">
         <v/>
       </c>
       <c r="I18">
-        <v>5.137983482297408</v>
+        <v>-6.157904912859287</v>
       </c>
       <c r="J18" t="str">
         <v/>
       </c>
       <c r="K18">
-        <v>-2.5315903934510438</v>
+        <v>11.779133054361862</v>
       </c>
       <c r="L18" t="str">
         <v/>
       </c>
       <c r="M18">
-        <v>-2.379274262905613</v>
+        <v>-6.152168991147444</v>
       </c>
       <c r="N18" t="str">
         <v/>
@@ -1211,28 +1211,28 @@
         <v/>
       </c>
       <c r="F19">
-        <v>87.57575757575758</v>
+        <v>30.90909090909091</v>
       </c>
       <c r="G19">
-        <v>4.646602530534314</v>
+        <v>11.948201421662606</v>
       </c>
       <c r="H19" t="str">
         <v/>
       </c>
       <c r="I19">
-        <v>4.408077058875738</v>
+        <v>-5.974100710831303</v>
       </c>
       <c r="J19" t="str">
         <v/>
       </c>
       <c r="K19">
-        <v>-2.323301265267157</v>
+        <v>12.885264872051382</v>
       </c>
       <c r="L19" t="str">
         <v/>
       </c>
       <c r="M19">
-        <v>-2.4676505979017653</v>
+        <v>-5.688961459025906</v>
       </c>
       <c r="N19" t="str">
         <v/>
@@ -1255,28 +1255,28 @@
         <v/>
       </c>
       <c r="F20">
-        <v>92.72727272727273</v>
+        <v>32.72727272727273</v>
       </c>
       <c r="G20">
-        <v>4.264298666289242</v>
+        <v>11.59156557569619</v>
       </c>
       <c r="H20" t="str">
         <v/>
       </c>
       <c r="I20">
-        <v>4.201922430224082</v>
+        <v>-5.795782787848095</v>
       </c>
       <c r="J20" t="str">
         <v/>
       </c>
       <c r="K20">
-        <v>-2.132149333144621</v>
+        <v>10.346538067731204</v>
       </c>
       <c r="L20" t="str">
         <v/>
       </c>
       <c r="M20">
-        <v>-2.0740751016263563</v>
+        <v>-5.961495397433899</v>
       </c>
       <c r="N20" t="str">
         <v/>
@@ -1299,28 +1299,28 @@
         <v/>
       </c>
       <c r="F21">
-        <v>97.87878787878788</v>
+        <v>34.54545454545455</v>
       </c>
       <c r="G21">
-        <v>3.913449234321577</v>
+        <v>11.245574773459753</v>
       </c>
       <c r="H21" t="str">
         <v/>
       </c>
       <c r="I21">
-        <v>3.761470296250671</v>
+        <v>-5.622787386729876</v>
       </c>
       <c r="J21" t="str">
         <v/>
       </c>
       <c r="K21">
-        <v>-1.9567246171607886</v>
+        <v>11.210024019380498</v>
       </c>
       <c r="L21" t="str">
         <v/>
       </c>
       <c r="M21">
-        <v>-2.0622023950360124</v>
+        <v>-5.372258648484658</v>
       </c>
       <c r="N21" t="str">
         <v/>
@@ -1343,28 +1343,28 @@
         <v/>
       </c>
       <c r="F22">
-        <v>103.03030303030303</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="G22">
-        <v>3.5914662897988805</v>
+        <v>10.90991127640487</v>
       </c>
       <c r="H22" t="str">
         <v/>
       </c>
       <c r="I22">
-        <v>3.490315966260004</v>
+        <v>-5.454955638202435</v>
       </c>
       <c r="J22" t="str">
         <v/>
       </c>
       <c r="K22">
-        <v>-1.7957331448994402</v>
+        <v>10.001115569374253</v>
       </c>
       <c r="L22" t="str">
         <v/>
       </c>
       <c r="M22">
-        <v>-1.9504069902749224</v>
+        <v>-5.601642310109606</v>
       </c>
       <c r="N22" t="str">
         <v/>
@@ -1387,28 +1387,28 @@
         <v/>
       </c>
       <c r="F23">
-        <v>108.18181818181819</v>
+        <v>38.18181818181818</v>
       </c>
       <c r="G23">
-        <v>3.295974813634652</v>
+        <v>10.584266830001006</v>
       </c>
       <c r="H23" t="str">
         <v/>
       </c>
       <c r="I23">
-        <v>4.223652233074479</v>
+        <v>-5.292133415000503</v>
       </c>
       <c r="J23" t="str">
         <v/>
       </c>
       <c r="K23">
-        <v>-1.647987406817326</v>
+        <v>11.066685158826122</v>
       </c>
       <c r="L23" t="str">
         <v/>
       </c>
       <c r="M23">
-        <v>-1.594956649539728</v>
+        <v>-5.327123759383324</v>
       </c>
       <c r="N23" t="str">
         <v/>
@@ -1431,28 +1431,28 @@
         <v/>
       </c>
       <c r="F24">
-        <v>113.33333333333333</v>
+        <v>40</v>
       </c>
       <c r="G24">
-        <v>3.0247951938099154</v>
+        <v>10.268342380651841</v>
       </c>
       <c r="H24" t="str">
         <v/>
       </c>
       <c r="I24">
-        <v>3.1439018223939694</v>
+        <v>-5.134171190325921</v>
       </c>
       <c r="J24" t="str">
         <v/>
       </c>
       <c r="K24">
-        <v>-1.5123975969049577</v>
+        <v>10.145509003360663</v>
       </c>
       <c r="L24" t="str">
         <v/>
       </c>
       <c r="M24">
-        <v>-1.6388740424102042</v>
+        <v>-5.630050233150564</v>
       </c>
       <c r="N24" t="str">
         <v/>
@@ -1475,28 +1475,28 @@
         <v/>
       </c>
       <c r="F25">
-        <v>118.48484848484848</v>
+        <v>41.81818181818182</v>
       </c>
       <c r="G25">
-        <v>2.775927148061558</v>
+        <v>9.961847801061218</v>
       </c>
       <c r="H25" t="str">
         <v/>
       </c>
       <c r="I25">
-        <v>2.395869734564672</v>
+        <v>-4.980923900530609</v>
       </c>
       <c r="J25" t="str">
         <v/>
       </c>
       <c r="K25">
-        <v>-1.387963574030779</v>
+        <v>10.143246681336244</v>
       </c>
       <c r="L25" t="str">
         <v/>
       </c>
       <c r="M25">
-        <v>-1.5015032808694624</v>
+        <v>-4.930929487622691</v>
       </c>
       <c r="N25" t="str">
         <v/>
@@ -1519,28 +1519,28 @@
         <v/>
       </c>
       <c r="F26">
-        <v>123.63636363636364</v>
+        <v>43.63636363636363</v>
       </c>
       <c r="G26">
-        <v>2.547534969347554</v>
+        <v>9.66450162379651</v>
       </c>
       <c r="H26" t="str">
         <v/>
       </c>
       <c r="I26">
-        <v>2.9567653989664926</v>
+        <v>-4.832250811898255</v>
       </c>
       <c r="J26" t="str">
         <v/>
       </c>
       <c r="K26">
-        <v>-1.273767484673777</v>
+        <v>8.789511094605398</v>
       </c>
       <c r="L26" t="str">
         <v/>
       </c>
       <c r="M26">
-        <v>-1.3208642415241065</v>
+        <v>-5.005345821040247</v>
       </c>
       <c r="N26" t="str">
         <v/>
@@ -1563,28 +1563,28 @@
         <v/>
       </c>
       <c r="F27">
-        <v>128.78787878787878</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="G27">
-        <v>2.3379339852562757</v>
+        <v>9.376030782804706</v>
       </c>
       <c r="H27" t="str">
         <v/>
       </c>
       <c r="I27">
-        <v>2.295332940505227</v>
+        <v>-4.688015391402353</v>
       </c>
       <c r="J27" t="str">
         <v/>
       </c>
       <c r="K27">
-        <v>-1.1689669926281379</v>
+        <v>10.006231125630002</v>
       </c>
       <c r="L27" t="str">
         <v/>
       </c>
       <c r="M27">
-        <v>-1.151295382997073</v>
+        <v>-4.8327824635409575</v>
       </c>
       <c r="N27" t="str">
         <v/>
@@ -1607,28 +1607,28 @@
         <v/>
       </c>
       <c r="F28">
-        <v>133.93939393939394</v>
+        <v>47.27272727272727</v>
       </c>
       <c r="G28">
-        <v>2.145578131481415</v>
+        <v>9.096170362643878</v>
       </c>
       <c r="H28" t="str">
         <v/>
       </c>
       <c r="I28">
-        <v>1.650426687112083</v>
+        <v>-4.548085181321939</v>
       </c>
       <c r="J28" t="str">
         <v/>
       </c>
       <c r="K28">
-        <v>-1.0727890657407075</v>
+        <v>9.267218833003785</v>
       </c>
       <c r="L28" t="str">
         <v/>
       </c>
       <c r="M28">
-        <v>-1.0557940758609963</v>
+        <v>-4.522182976506018</v>
       </c>
       <c r="N28" t="str">
         <v/>
@@ -1651,28 +1651,28 @@
         <v/>
       </c>
       <c r="F29">
-        <v>139.0909090909091</v>
+        <v>49.09090909090909</v>
       </c>
       <c r="G29">
-        <v>1.9690485477016844</v>
+        <v>8.824663355199679</v>
       </c>
       <c r="H29" t="str">
         <v/>
       </c>
       <c r="I29">
-        <v>2.359102501435025</v>
+        <v>-4.412331677599839</v>
       </c>
       <c r="J29" t="str">
         <v/>
       </c>
       <c r="K29">
-        <v>-0.9845242738508422</v>
+        <v>8.444396032207504</v>
       </c>
       <c r="L29" t="str">
         <v/>
       </c>
       <c r="M29">
-        <v>-1.0112590032931097</v>
+        <v>-4.635101897564027</v>
       </c>
       <c r="N29" t="str">
         <v/>
@@ -1695,28 +1695,28 @@
         <v/>
       </c>
       <c r="F30">
-        <v>144.24242424242425</v>
+        <v>50.90909090909091</v>
       </c>
       <c r="G30">
-        <v>1.8070431117458923</v>
+        <v>8.56126042366352</v>
       </c>
       <c r="H30" t="str">
         <v/>
       </c>
       <c r="I30">
-        <v>1.1883139385442316</v>
+        <v>-4.28063021183176</v>
       </c>
       <c r="J30" t="str">
         <v/>
       </c>
       <c r="K30">
-        <v>-0.9035215558729461</v>
+        <v>8.213763150904843</v>
       </c>
       <c r="L30" t="str">
         <v/>
       </c>
       <c r="M30">
-        <v>-0.8532125839323145</v>
+        <v>-4.026122099385432</v>
       </c>
       <c r="N30" t="str">
         <v/>
@@ -1739,28 +1739,28 @@
         <v/>
       </c>
       <c r="F31">
-        <v>149.3939393939394</v>
+        <v>52.72727272727273</v>
       </c>
       <c r="G31">
-        <v>1.658366834845046</v>
+        <v>8.305719673555611</v>
       </c>
       <c r="H31" t="str">
         <v/>
       </c>
       <c r="I31">
-        <v>2.117465440702688</v>
+        <v>-4.152859836777806</v>
       </c>
       <c r="J31" t="str">
         <v/>
       </c>
       <c r="K31">
-        <v>-0.829183417422523</v>
+        <v>8.43644341060172</v>
       </c>
       <c r="L31" t="str">
         <v/>
       </c>
       <c r="M31">
-        <v>-0.8380976077528617</v>
+        <v>-4.0590533496536265</v>
       </c>
       <c r="N31" t="str">
         <v/>
@@ -1783,28 +1783,28 @@
         <v/>
       </c>
       <c r="F32">
-        <v>154.54545454545453</v>
+        <v>54.54545454545455</v>
       </c>
       <c r="G32">
-        <v>1.5219230471246825</v>
+        <v>8.05780643058266</v>
       </c>
       <c r="H32" t="str">
         <v/>
       </c>
       <c r="I32">
-        <v>1.4110231095588395</v>
+        <v>-4.02890321529133</v>
       </c>
       <c r="J32" t="str">
         <v/>
       </c>
       <c r="K32">
-        <v>-0.7609615235623413</v>
+        <v>9.084221459298956</v>
       </c>
       <c r="L32" t="str">
         <v/>
       </c>
       <c r="M32">
-        <v>-0.8337673909618654</v>
+        <v>-3.895203203672187</v>
       </c>
       <c r="N32" t="str">
         <v/>
@@ -1827,28 +1827,28 @@
         <v/>
       </c>
       <c r="F33">
-        <v>159.6969696969697</v>
+        <v>56.36363636363637</v>
       </c>
       <c r="G33">
-        <v>1.3967053083196177</v>
+        <v>7.817293025126143</v>
       </c>
       <c r="H33" t="str">
         <v/>
       </c>
       <c r="I33">
-        <v>1.5312353782074475</v>
+        <v>-3.9086465125630716</v>
       </c>
       <c r="J33" t="str">
         <v/>
       </c>
       <c r="K33">
-        <v>-0.6983526541598088</v>
+        <v>6.121812254828151</v>
       </c>
       <c r="L33" t="str">
         <v/>
       </c>
       <c r="M33">
-        <v>-0.8155203528814482</v>
+        <v>-4.07327995044426</v>
       </c>
       <c r="N33" t="str">
         <v/>
@@ -1871,28 +1871,28 @@
         <v/>
       </c>
       <c r="F34">
-        <v>164.84848484848484</v>
+        <v>58.18181818181818</v>
       </c>
       <c r="G34">
-        <v>1.2817899840427223</v>
+        <v>7.583958583163307</v>
       </c>
       <c r="H34" t="str">
         <v/>
       </c>
       <c r="I34">
-        <v>0.8775081520968373</v>
+        <v>-3.7919792915816535</v>
       </c>
       <c r="J34" t="str">
         <v/>
       </c>
       <c r="K34">
-        <v>-0.6408949920213611</v>
+        <v>6.767791744216448</v>
       </c>
       <c r="L34" t="str">
         <v/>
       </c>
       <c r="M34">
-        <v>-0.7056771196261455</v>
+        <v>-3.953383008811891</v>
       </c>
       <c r="N34" t="str">
         <v/>
@@ -1915,28 +1915,28 @@
         <v/>
       </c>
       <c r="F35">
-        <v>170</v>
+        <v>60</v>
       </c>
       <c r="G35">
-        <v>1.1763294328485976</v>
+        <v>7.357588823428847</v>
       </c>
       <c r="H35" t="str">
         <v/>
       </c>
       <c r="I35">
-        <v>1.5776840627259525</v>
+        <v>-3.6787944117144233</v>
       </c>
       <c r="J35" t="str">
         <v/>
       </c>
       <c r="K35">
-        <v>-0.5881647164242988</v>
+        <v>7.878357778751851</v>
       </c>
       <c r="L35" t="str">
         <v/>
       </c>
       <c r="M35">
-        <v>-0.5577620055747444</v>
+        <v>-3.425279152257979</v>
       </c>
       <c r="N35" t="str">
         <v/>
@@ -1959,28 +1959,28 @@
         <v/>
       </c>
       <c r="F36">
-        <v>175.15151515151516</v>
+        <v>61.81818181818182</v>
       </c>
       <c r="G36">
-        <v>1.0795457538383946</v>
+        <v>7.137975860631015</v>
       </c>
       <c r="H36" t="str">
         <v/>
       </c>
       <c r="I36">
-        <v>1.1737801283456528</v>
+        <v>-3.5689879303155077</v>
       </c>
       <c r="J36" t="str">
         <v/>
       </c>
       <c r="K36">
-        <v>-0.5397728769191973</v>
+        <v>5.8163704226390305</v>
       </c>
       <c r="L36" t="str">
         <v/>
       </c>
       <c r="M36">
-        <v>-0.5681186250832657</v>
+        <v>-3.596289861684307</v>
       </c>
       <c r="N36" t="str">
         <v/>
@@ -2003,28 +2003,28 @@
         <v/>
       </c>
       <c r="F37">
-        <v>180.3030303030303</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="G37">
-        <v>0.9907250486866845</v>
+        <v>6.924918014541427</v>
       </c>
       <c r="H37" t="str">
         <v/>
       </c>
       <c r="I37">
-        <v>1.2286397758880654</v>
+        <v>-3.4624590072707133</v>
       </c>
       <c r="J37" t="str">
         <v/>
       </c>
       <c r="K37">
-        <v>-0.49536252434334227</v>
+        <v>8.831847531082955</v>
       </c>
       <c r="L37" t="str">
         <v/>
       </c>
       <c r="M37">
-        <v>-0.39505548545329366</v>
+        <v>-3.680839719478697</v>
       </c>
       <c r="N37" t="str">
         <v/>
@@ -2047,28 +2047,28 @@
         <v/>
       </c>
       <c r="F38">
-        <v>185.45454545454547</v>
+        <v>65.45454545454545</v>
       </c>
       <c r="G38">
-        <v>0.9092121557658104</v>
+        <v>6.718219624783249</v>
       </c>
       <c r="H38" t="str">
         <v/>
       </c>
       <c r="I38">
-        <v>0.654089789243857</v>
+        <v>-3.3591098123916243</v>
       </c>
       <c r="J38" t="str">
         <v/>
       </c>
       <c r="K38">
-        <v>-0.4546060778829052</v>
+        <v>7.918949537424356</v>
       </c>
       <c r="L38" t="str">
         <v/>
       </c>
       <c r="M38">
-        <v>-0.4155394498618318</v>
+        <v>-3.366711828445515</v>
       </c>
       <c r="N38" t="str">
         <v/>
@@ -2091,28 +2091,28 @@
         <v/>
       </c>
       <c r="F39">
-        <v>190.6060606060606</v>
+        <v>67.27272727272727</v>
       </c>
       <c r="G39">
-        <v>0.8344058175254082</v>
+        <v>6.517690871147678</v>
       </c>
       <c r="H39" t="str">
         <v/>
       </c>
       <c r="I39">
-        <v>0.38951029046669117</v>
+        <v>-3.258845435573839</v>
       </c>
       <c r="J39" t="str">
         <v/>
       </c>
       <c r="K39">
-        <v>-0.4172029087627041</v>
+        <v>7.2126160717273855</v>
       </c>
       <c r="L39" t="str">
         <v/>
       </c>
       <c r="M39">
-        <v>-0.4408659098606889</v>
+        <v>-3.309006456045696</v>
       </c>
       <c r="N39" t="str">
         <v/>
@@ -2135,28 +2135,28 @@
         <v/>
       </c>
       <c r="F40">
-        <v>195.75757575757575</v>
+        <v>69.0909090909091</v>
       </c>
       <c r="G40">
-        <v>0.765754245480607</v>
+        <v>6.323147599273718</v>
       </c>
       <c r="H40" t="str">
         <v/>
       </c>
       <c r="I40">
-        <v>0.6949502611990294</v>
+        <v>-3.161573799636859</v>
       </c>
       <c r="J40" t="str">
         <v/>
       </c>
       <c r="K40">
-        <v>-0.3828771227403035</v>
+        <v>5.69305904962012</v>
       </c>
       <c r="L40" t="str">
         <v/>
       </c>
       <c r="M40">
-        <v>-0.3874330157140801</v>
+        <v>-3.2189247874709315</v>
       </c>
       <c r="N40" t="str">
         <v/>
@@ -2179,28 +2179,28 @@
         <v/>
       </c>
       <c r="F41">
-        <v>200.9090909090909</v>
+        <v>70.9090909090909</v>
       </c>
       <c r="G41">
-        <v>0.702751050095259</v>
+        <v>6.134411151531135</v>
       </c>
       <c r="H41" t="str">
         <v/>
       </c>
       <c r="I41">
-        <v>1.010197272246431</v>
+        <v>-3.0672055757655676</v>
       </c>
       <c r="J41" t="str">
         <v/>
       </c>
       <c r="K41">
-        <v>-0.3513755250476295</v>
+        <v>6.111514983984513</v>
       </c>
       <c r="L41" t="str">
         <v/>
       </c>
       <c r="M41">
-        <v>-0.2767650844435696</v>
+        <v>-3.0796924234790986</v>
       </c>
       <c r="N41" t="str">
         <v/>
@@ -2223,28 +2223,28 @@
         <v/>
       </c>
       <c r="F42">
-        <v>206.06060606060606</v>
+        <v>72.72727272727273</v>
       </c>
       <c r="G42">
-        <v>0.6449315055380866</v>
+        <v>5.9513082029513065</v>
       </c>
       <c r="H42" t="str">
         <v/>
       </c>
       <c r="I42">
-        <v>0.514677533562799</v>
+        <v>-2.9756541014756532</v>
       </c>
       <c r="J42" t="str">
         <v/>
       </c>
       <c r="K42">
-        <v>-0.3224657527690433</v>
+        <v>6.840971171292878</v>
       </c>
       <c r="L42" t="str">
         <v/>
       </c>
       <c r="M42">
-        <v>-0.36922934942277374</v>
+        <v>-3.146454241115942</v>
       </c>
       <c r="N42" t="str">
         <v/>
@@ -2267,28 +2267,28 @@
         <v/>
       </c>
       <c r="F43">
-        <v>211.21212121212122</v>
+        <v>74.54545454545455</v>
       </c>
       <c r="G43">
-        <v>0.5918691217597499</v>
+        <v>5.7736706020553</v>
       </c>
       <c r="H43" t="str">
         <v/>
       </c>
       <c r="I43">
-        <v>0.24892803670571562</v>
+        <v>-2.88683530102765</v>
       </c>
       <c r="J43" t="str">
         <v/>
       </c>
       <c r="K43">
-        <v>-0.29593456087987496</v>
+        <v>4.873886150919145</v>
       </c>
       <c r="L43" t="str">
         <v/>
       </c>
       <c r="M43">
-        <v>-0.4170341809659926</v>
+        <v>-2.828874414491132</v>
       </c>
       <c r="N43" t="str">
         <v/>
@@ -2311,28 +2311,28 @@
         <v/>
       </c>
       <c r="F44">
-        <v>216.36363636363637</v>
+        <v>76.36363636363636</v>
       </c>
       <c r="G44">
-        <v>0.5431724986056988</v>
+        <v>5.601335216432978</v>
       </c>
       <c r="H44" t="str">
         <v/>
       </c>
       <c r="I44">
-        <v>-0.06580873139026477</v>
+        <v>-2.800667608216489</v>
       </c>
       <c r="J44" t="str">
         <v/>
       </c>
       <c r="K44">
-        <v>-0.2715862493028494</v>
+        <v>4.936739978025292</v>
       </c>
       <c r="L44" t="str">
         <v/>
       </c>
       <c r="M44">
-        <v>-0.2168471687864472</v>
+        <v>-2.743593483810274</v>
       </c>
       <c r="N44" t="str">
         <v/>
@@ -2355,28 +2355,28 @@
         <v/>
       </c>
       <c r="F45">
-        <v>221.5151515151515</v>
+        <v>78.18181818181819</v>
       </c>
       <c r="G45">
-        <v>0.4984824387600315</v>
+        <v>5.434143782931341</v>
       </c>
       <c r="H45" t="str">
         <v/>
       </c>
       <c r="I45">
-        <v>0.31617761927264465</v>
+        <v>-2.7170718914656704</v>
       </c>
       <c r="J45" t="str">
         <v/>
       </c>
       <c r="K45">
-        <v>-0.24924121938001575</v>
+        <v>6.024488451978247</v>
       </c>
       <c r="L45" t="str">
         <v/>
       </c>
       <c r="M45">
-        <v>-0.2793357104089612</v>
+        <v>-2.4645918816530994</v>
       </c>
       <c r="N45" t="str">
         <v/>
@@ -2399,28 +2399,28 @@
         <v/>
       </c>
       <c r="F46">
-        <v>226.66666666666666</v>
+        <v>80</v>
       </c>
       <c r="G46">
-        <v>0.4574692982247782</v>
+        <v>5.271942762314535</v>
       </c>
       <c r="H46" t="str">
         <v/>
       </c>
       <c r="I46">
-        <v>1.0030641445917974</v>
+        <v>-2.6359713811572676</v>
       </c>
       <c r="J46" t="str">
         <v/>
       </c>
       <c r="K46">
-        <v>-0.2287346491123891</v>
+        <v>4.271500429899119</v>
       </c>
       <c r="L46" t="str">
         <v/>
       </c>
       <c r="M46">
-        <v>-0.21098611378676113</v>
+        <v>-2.8269645884199273</v>
       </c>
       <c r="N46" t="str">
         <v/>
@@ -2443,28 +2443,28 @@
         <v/>
       </c>
       <c r="F47">
-        <v>231.8181818181818</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="G47">
-        <v>0.41983055479115317</v>
+        <v>5.114583198262013</v>
       </c>
       <c r="H47" t="str">
         <v/>
       </c>
       <c r="I47">
-        <v>0.5964514030393289</v>
+        <v>-2.5572915991310063</v>
       </c>
       <c r="J47" t="str">
         <v/>
       </c>
       <c r="K47">
-        <v>-0.20991527739557658</v>
+        <v>5.786759837008519</v>
       </c>
       <c r="L47" t="str">
         <v/>
       </c>
       <c r="M47">
-        <v>-0.39253416615908066</v>
+        <v>-2.8769033017438397</v>
       </c>
       <c r="N47" t="str">
         <v/>
@@ -2487,28 +2487,28 @@
         <v/>
       </c>
       <c r="F48">
-        <v>236.96969696969697</v>
+        <v>83.63636363636364</v>
       </c>
       <c r="G48">
-        <v>0.3852885765672586</v>
+        <v>4.961920580575411</v>
       </c>
       <c r="H48" t="str">
         <v/>
       </c>
       <c r="I48">
-        <v>0.8543044082191535</v>
+        <v>-2.4809602902877055</v>
       </c>
       <c r="J48" t="str">
         <v/>
       </c>
       <c r="K48">
-        <v>-0.1926442882836293</v>
+        <v>4.554555807507469</v>
       </c>
       <c r="L48" t="str">
         <v/>
       </c>
       <c r="M48">
-        <v>-0.053762823768419926</v>
+        <v>-2.4893682432028608</v>
       </c>
       <c r="N48" t="str">
         <v/>
@@ -2531,28 +2531,28 @@
         <v/>
       </c>
       <c r="F49">
-        <v>242.12121212121212</v>
+        <v>85.45454545454545</v>
       </c>
       <c r="G49">
-        <v>0.3535885741024021</v>
+        <v>4.81381471246849</v>
       </c>
       <c r="H49" t="str">
         <v/>
       </c>
       <c r="I49">
-        <v>0.14002896688343563</v>
+        <v>-2.406907356234245</v>
       </c>
       <c r="J49" t="str">
         <v/>
       </c>
       <c r="K49">
-        <v>-0.17679428705120104</v>
+        <v>4.084138308198356</v>
       </c>
       <c r="L49" t="str">
         <v/>
       </c>
       <c r="M49">
-        <v>-0.2110653925966152</v>
+        <v>-2.293953303044486</v>
       </c>
       <c r="N49" t="str">
         <v/>
@@ -2575,28 +2575,28 @@
         <v/>
       </c>
       <c r="F50">
-        <v>247.27272727272728</v>
+        <v>87.27272727272727</v>
       </c>
       <c r="G50">
-        <v>0.32449672100243215</v>
+        <v>4.670129581818268</v>
       </c>
       <c r="H50" t="str">
         <v/>
       </c>
       <c r="I50">
-        <v>0.5968819029798402</v>
+        <v>-2.335064790909134</v>
       </c>
       <c r="J50" t="str">
         <v/>
       </c>
       <c r="K50">
-        <v>-0.16224836050121608</v>
+        <v>4.913797480530111</v>
       </c>
       <c r="L50" t="str">
         <v/>
       </c>
       <c r="M50">
-        <v>-0.08459528532644005</v>
+        <v>-2.341230401189965</v>
       </c>
       <c r="N50" t="str">
         <v/>
@@ -2619,28 +2619,28 @@
         <v/>
       </c>
       <c r="F51">
-        <v>252.42424242424244</v>
+        <v>89.0909090909091</v>
       </c>
       <c r="G51">
-        <v>0.29779842917332233</v>
+        <v>4.530733236259107</v>
       </c>
       <c r="H51" t="str">
         <v/>
       </c>
       <c r="I51">
-        <v>0.4487768916884515</v>
+        <v>-2.2653666181295535</v>
       </c>
       <c r="J51" t="str">
         <v/>
       </c>
       <c r="K51">
-        <v>-0.14889921458666117</v>
+        <v>5.199486329745234</v>
       </c>
       <c r="L51" t="str">
         <v/>
       </c>
       <c r="M51">
-        <v>-0.12818693733214437</v>
+        <v>-2.24645100116011</v>
       </c>
       <c r="N51" t="str">
         <v/>
@@ -2663,28 +2663,28 @@
         <v/>
       </c>
       <c r="F52">
-        <v>257.57575757575756</v>
+        <v>90.9090909090909</v>
       </c>
       <c r="G52">
-        <v>0.2732967659708146</v>
+        <v>4.395497662005072</v>
       </c>
       <c r="H52" t="str">
         <v/>
       </c>
       <c r="I52">
-        <v>0.3642337191270848</v>
+        <v>-2.197748831002536</v>
       </c>
       <c r="J52" t="str">
         <v/>
       </c>
       <c r="K52">
-        <v>-0.1366483829854073</v>
+        <v>4.428295619808921</v>
       </c>
       <c r="L52" t="str">
         <v/>
       </c>
       <c r="M52">
-        <v>-0.042566102612515144</v>
+        <v>-2.062780566768618</v>
       </c>
       <c r="N52" t="str">
         <v/>
@@ -2707,28 +2707,28 @@
         <v/>
       </c>
       <c r="F53">
-        <v>262.72727272727275</v>
+        <v>92.72727272727273</v>
       </c>
       <c r="G53">
-        <v>0.25081100158065284</v>
+        <v>4.264298666289242</v>
       </c>
       <c r="H53" t="str">
         <v/>
       </c>
       <c r="I53">
-        <v>-0.03880220151016062</v>
+        <v>-2.132149333144621</v>
       </c>
       <c r="J53" t="str">
         <v/>
       </c>
       <c r="K53">
-        <v>-0.12540550079032642</v>
+        <v>3.565741839987984</v>
       </c>
       <c r="L53" t="str">
         <v/>
       </c>
       <c r="M53">
-        <v>0.042373110277784454</v>
+        <v>-1.8419392851923166</v>
       </c>
       <c r="N53" t="str">
         <v/>
@@ -2751,28 +2751,28 @@
         <v/>
       </c>
       <c r="F54">
-        <v>267.8787878787879</v>
+        <v>94.54545454545455</v>
       </c>
       <c r="G54">
-        <v>0.23017527591456405</v>
+        <v>4.137015763312043</v>
       </c>
       <c r="H54" t="str">
         <v/>
       </c>
       <c r="I54">
-        <v>0.3398144589154177</v>
+        <v>-2.0685078816560214</v>
       </c>
       <c r="J54" t="str">
         <v/>
       </c>
       <c r="K54">
-        <v>-0.11508763795728202</v>
+        <v>3.5257976025324456</v>
       </c>
       <c r="L54" t="str">
         <v/>
       </c>
       <c r="M54">
-        <v>-0.059812592693735664</v>
+        <v>-2.1082725148914996</v>
       </c>
       <c r="N54" t="str">
         <v/>
@@ -2795,28 +2795,28 @@
         <v/>
       </c>
       <c r="F55">
-        <v>273.030303030303</v>
+        <v>96.36363636363636</v>
       </c>
       <c r="G55">
-        <v>0.2112373751886988</v>
+        <v>4.013532063593841</v>
       </c>
       <c r="H55" t="str">
         <v/>
       </c>
       <c r="I55">
-        <v>-0.04973254856229811</v>
+        <v>-2.0067660317969205</v>
       </c>
       <c r="J55" t="str">
         <v/>
       </c>
       <c r="K55">
-        <v>-0.1056186875943494</v>
+        <v>4.590939750334263</v>
       </c>
       <c r="L55" t="str">
         <v/>
       </c>
       <c r="M55">
-        <v>-0.21452104142538928</v>
+        <v>-2.112042583226792</v>
       </c>
       <c r="N55" t="str">
         <v/>
@@ -2839,28 +2839,28 @@
         <v/>
       </c>
       <c r="F56">
-        <v>278.1818181818182</v>
+        <v>98.18181818181819</v>
       </c>
       <c r="G56">
-        <v>0.1938576091603056</v>
+        <v>3.8937341666302028</v>
       </c>
       <c r="H56" t="str">
         <v/>
       </c>
       <c r="I56">
-        <v>0.6565209143565539</v>
+        <v>-1.9468670833151014</v>
       </c>
       <c r="J56" t="str">
         <v/>
       </c>
       <c r="K56">
-        <v>-0.0969288045801528</v>
+        <v>4.987419232335297</v>
       </c>
       <c r="L56" t="str">
         <v/>
       </c>
       <c r="M56">
-        <v>-0.1236781312500374</v>
+        <v>-2.121525457058435</v>
       </c>
       <c r="N56" t="str">
         <v/>
@@ -2883,28 +2883,28 @@
         <v/>
       </c>
       <c r="F57">
-        <v>283.3333333333333</v>
+        <v>100</v>
       </c>
       <c r="G57">
-        <v>0.1779077807408791</v>
+        <v>3.7775120567512364</v>
       </c>
       <c r="H57" t="str">
         <v/>
       </c>
       <c r="I57">
-        <v>-0.15609165667931674</v>
+        <v>-1.8887560283756182</v>
       </c>
       <c r="J57" t="str">
         <v/>
       </c>
       <c r="K57">
-        <v>-0.08895389037043955</v>
+        <v>2.358380929387116</v>
       </c>
       <c r="L57" t="str">
         <v/>
       </c>
       <c r="M57">
-        <v>0.014382006178321347</v>
+        <v>-2.188952655527327</v>
       </c>
       <c r="N57" t="str">
         <v/>
@@ -2927,28 +2927,28 @@
         <v/>
       </c>
       <c r="F58">
-        <v>288.4848484848485</v>
+        <v>101.81818181818181</v>
       </c>
       <c r="G58">
-        <v>0.16327024038541388</v>
+        <v>3.6647590020893626</v>
       </c>
       <c r="H58" t="str">
         <v/>
       </c>
       <c r="I58">
-        <v>0.051907670079897245</v>
+        <v>-1.8323795010446813</v>
       </c>
       <c r="J58" t="str">
         <v/>
       </c>
       <c r="K58">
-        <v>-0.08163512019270694</v>
+        <v>4.7864084375038685</v>
       </c>
       <c r="L58" t="str">
         <v/>
       </c>
       <c r="M58">
-        <v>-0.003974441732983197</v>
+        <v>-2.2591420631932744</v>
       </c>
       <c r="N58" t="str">
         <v/>
@@ -2971,28 +2971,28 @@
         <v/>
       </c>
       <c r="F59">
-        <v>293.6363636363636</v>
+        <v>103.63636363636364</v>
       </c>
       <c r="G59">
-        <v>0.14983701828272897</v>
+        <v>3.5553714565627565</v>
       </c>
       <c r="H59" t="str">
         <v/>
       </c>
       <c r="I59">
-        <v>-0.14815574919962718</v>
+        <v>-1.7776857282813783</v>
       </c>
       <c r="J59" t="str">
         <v/>
       </c>
       <c r="K59">
-        <v>-0.07491850914136448</v>
+        <v>3.6437601228283794</v>
       </c>
       <c r="L59" t="str">
         <v/>
       </c>
       <c r="M59">
-        <v>-0.0064680152086006165</v>
+        <v>-2.0574570260047804</v>
       </c>
       <c r="N59" t="str">
         <v/>
@@ -3015,28 +3015,28 @@
         <v/>
       </c>
       <c r="F60">
-        <v>298.7878787878788</v>
+        <v>105.45454545454545</v>
       </c>
       <c r="G60">
-        <v>0.13750902794569875</v>
+        <v>3.449248964784436</v>
       </c>
       <c r="H60" t="str">
         <v/>
       </c>
       <c r="I60">
-        <v>0.07714374922448936</v>
+        <v>-1.724624482392218</v>
       </c>
       <c r="J60" t="str">
         <v/>
       </c>
       <c r="K60">
-        <v>-0.06875451397284937</v>
+        <v>3.5760250929843163</v>
       </c>
       <c r="L60" t="str">
         <v/>
       </c>
       <c r="M60">
-        <v>-0.16095788014368906</v>
+        <v>-1.8605346933488467</v>
       </c>
       <c r="N60" t="str">
         <v/>
@@ -3059,28 +3059,28 @@
         <v/>
       </c>
       <c r="F61">
-        <v>303.93939393939394</v>
+        <v>107.27272727272727</v>
       </c>
       <c r="G61">
-        <v>0.12619533532689434</v>
+        <v>3.3462940698096655</v>
       </c>
       <c r="H61" t="str">
         <v/>
       </c>
       <c r="I61">
-        <v>-0.2619249345346314</v>
+        <v>-1.6731470349048327</v>
       </c>
       <c r="J61" t="str">
         <v/>
       </c>
       <c r="K61">
-        <v>-0.06309766766344717</v>
+        <v>3.0020341936670114</v>
       </c>
       <c r="L61" t="str">
         <v/>
       </c>
       <c r="M61">
-        <v>-0.0002554367977603278</v>
+        <v>-1.605516025986091</v>
       </c>
       <c r="N61" t="str">
         <v/>
@@ -3103,28 +3103,28 @@
         <v/>
       </c>
       <c r="F62">
-        <v>309.09090909090907</v>
+        <v>109.0909090909091</v>
       </c>
       <c r="G62">
-        <v>0.1158124880684639</v>
+        <v>3.2464122236369635</v>
       </c>
       <c r="H62" t="str">
         <v/>
       </c>
       <c r="I62">
-        <v>0.6577596419760744</v>
+        <v>-1.6232061118184817</v>
       </c>
       <c r="J62" t="str">
         <v/>
       </c>
       <c r="K62">
-        <v>-0.05790624403423195</v>
+        <v>2.618284400470273</v>
       </c>
       <c r="L62" t="str">
         <v/>
       </c>
       <c r="M62">
-        <v>0.022687038674592493</v>
+        <v>-1.5484465189111258</v>
       </c>
       <c r="N62" t="str">
         <v/>
@@ -3147,28 +3147,28 @@
         <v/>
       </c>
       <c r="F63">
-        <v>314.24242424242425</v>
+        <v>110.9090909090909</v>
       </c>
       <c r="G63">
-        <v>0.10628389993865048</v>
+        <v>3.1495117003805206</v>
       </c>
       <c r="H63" t="str">
         <v/>
       </c>
       <c r="I63">
-        <v>0.5073449451725254</v>
+        <v>-1.5747558501902603</v>
       </c>
       <c r="J63" t="str">
         <v/>
       </c>
       <c r="K63">
-        <v>-0.05314194996932524</v>
+        <v>2.011278286870807</v>
       </c>
       <c r="L63" t="str">
         <v/>
       </c>
       <c r="M63">
-        <v>0.009400607851991913</v>
+        <v>-1.4435300582285067</v>
       </c>
       <c r="N63" t="str">
         <v/>
@@ -3191,28 +3191,28 @@
         <v/>
       </c>
       <c r="F64">
-        <v>319.3939393939394</v>
+        <v>112.72727272727273</v>
       </c>
       <c r="G64">
-        <v>0.09753928591440991</v>
+        <v>3.055503512034292</v>
       </c>
       <c r="H64" t="str">
         <v/>
       </c>
       <c r="I64">
-        <v>-0.6463789762494254</v>
+        <v>-1.527751756017146</v>
       </c>
       <c r="J64" t="str">
         <v/>
       </c>
       <c r="K64">
-        <v>-0.048769642957204956</v>
+        <v>4.096628031387688</v>
       </c>
       <c r="L64" t="str">
         <v/>
       </c>
       <c r="M64">
-        <v>-0.09053018397605336</v>
+        <v>-1.8013159172705802</v>
       </c>
       <c r="N64" t="str">
         <v/>
@@ -3235,28 +3235,28 @@
         <v/>
       </c>
       <c r="F65">
-        <v>324.54545454545456</v>
+        <v>114.54545454545455</v>
       </c>
       <c r="G65">
-        <v>0.08951414374316936</v>
+        <v>2.964301326750403</v>
       </c>
       <c r="H65" t="str">
         <v/>
       </c>
       <c r="I65">
-        <v>-0.1653478792383763</v>
+        <v>-1.4821506633752015</v>
       </c>
       <c r="J65" t="str">
         <v/>
       </c>
       <c r="K65">
-        <v>-0.04475707187158468</v>
+        <v>2.024152390756539</v>
       </c>
       <c r="L65" t="str">
         <v/>
       </c>
       <c r="M65">
-        <v>-0.2268910090563609</v>
+        <v>-1.637253028570246</v>
       </c>
       <c r="N65" t="str">
         <v/>
@@ -3279,28 +3279,28 @@
         <v/>
       </c>
       <c r="F66">
-        <v>329.6969696969697</v>
+        <v>116.36363636363636</v>
       </c>
       <c r="G66">
-        <v>0.0821492781596121</v>
+        <v>2.87582138955682</v>
       </c>
       <c r="H66" t="str">
         <v/>
       </c>
       <c r="I66">
-        <v>0.3283226714223919</v>
+        <v>-1.43791069477841</v>
       </c>
       <c r="J66" t="str">
         <v/>
       </c>
       <c r="K66">
-        <v>-0.04107463907980605</v>
+        <v>2.8446203643176147</v>
       </c>
       <c r="L66" t="str">
         <v/>
       </c>
       <c r="M66">
-        <v>-0.04910854714357859</v>
+        <v>-1.2523085312618625</v>
       </c>
       <c r="N66" t="str">
         <v/>
@@ -3323,28 +3323,28 @@
         <v/>
       </c>
       <c r="F67">
-        <v>334.8484848484849</v>
+        <v>118.18181818181819</v>
       </c>
       <c r="G67">
-        <v>0.07539036424799939</v>
+        <v>2.7899824454414808</v>
       </c>
       <c r="H67" t="str">
         <v/>
       </c>
       <c r="I67">
-        <v>-0.20135085737722114</v>
+        <v>-1.3949912227207404</v>
       </c>
       <c r="J67" t="str">
         <v/>
       </c>
       <c r="K67">
-        <v>-0.03769518212399969</v>
+        <v>3.4440270535433326</v>
       </c>
       <c r="L67" t="str">
         <v/>
       </c>
       <c r="M67">
-        <v>-0.02712352960026228</v>
+        <v>-1.2954274059100723</v>
       </c>
       <c r="N67" t="str">
         <v/>
@@ -3367,28 +3367,28 @@
         <v/>
       </c>
       <c r="F68">
-        <v>340</v>
+        <v>120</v>
       </c>
       <c r="G68">
-        <v>0.06918754672929517</v>
+        <v>2.706705664732254</v>
       </c>
       <c r="H68" t="str">
         <v/>
       </c>
       <c r="I68">
-        <v>0.6408994135290897</v>
+        <v>-1.353352832366127</v>
       </c>
       <c r="J68" t="str">
         <v/>
       </c>
       <c r="K68">
-        <v>-0.034593773364647584</v>
+        <v>2.8203689363844537</v>
       </c>
       <c r="L68" t="str">
         <v/>
       </c>
       <c r="M68">
-        <v>0.04434871494461673</v>
+        <v>-1.3501877520732108</v>
       </c>
       <c r="N68" t="str">
         <v/>
@@ -3411,28 +3411,28 @@
         <v/>
       </c>
       <c r="F69">
-        <v>345.1515151515151</v>
+        <v>121.81818181818181</v>
       </c>
       <c r="G69">
-        <v>0.06349507221734157</v>
+        <v>2.6259145707041833</v>
       </c>
       <c r="H69" t="str">
         <v/>
       </c>
       <c r="I69">
-        <v>-0.46115682947840414</v>
+        <v>-1.3129572853520917</v>
       </c>
       <c r="J69" t="str">
         <v/>
       </c>
       <c r="K69">
-        <v>-0.03174753610867079</v>
+        <v>2.928766077438004</v>
       </c>
       <c r="L69" t="str">
         <v/>
       </c>
       <c r="M69">
-        <v>0.020283365130141166</v>
+        <v>-1.2036168853366607</v>
       </c>
       <c r="N69" t="str">
         <v/>
@@ -3455,28 +3455,28 @@
         <v/>
       </c>
       <c r="F70">
-        <v>350.3030303030303</v>
+        <v>123.63636363636364</v>
       </c>
       <c r="G70">
-        <v>0.05827095173152537</v>
+        <v>2.547534969347554</v>
       </c>
       <c r="H70" t="str">
         <v/>
       </c>
       <c r="I70">
-        <v>-0.6242541192214196</v>
+        <v>-1.273767484673777</v>
       </c>
       <c r="J70" t="str">
         <v/>
       </c>
       <c r="K70">
-        <v>-0.029135475865762685</v>
+        <v>3.071116900313121</v>
       </c>
       <c r="L70" t="str">
         <v/>
       </c>
       <c r="M70">
-        <v>0.038361150268520126</v>
+        <v>-1.4858277206351702</v>
       </c>
       <c r="N70" t="str">
         <v/>
@@ -3499,28 +3499,28 @@
         <v/>
       </c>
       <c r="F71">
-        <v>355.45454545454544</v>
+        <v>125.45454545454545</v>
       </c>
       <c r="G71">
-        <v>0.05347665097655237</v>
+        <v>2.471494881232278</v>
       </c>
       <c r="H71" t="str">
         <v/>
       </c>
       <c r="I71">
-        <v>0.3234353949722619</v>
+        <v>-1.235747440616139</v>
       </c>
       <c r="J71" t="str">
         <v/>
       </c>
       <c r="K71">
-        <v>-0.026738325488276184</v>
+        <v>1.5223033411188585</v>
       </c>
       <c r="L71" t="str">
         <v/>
       </c>
       <c r="M71">
-        <v>0.0693849431579334</v>
+        <v>-1.0594867326113815</v>
       </c>
       <c r="N71" t="str">
         <v/>
@@ -3543,28 +3543,28 @@
         <v/>
       </c>
       <c r="F72">
-        <v>360.6060606060606</v>
+        <v>127.27272727272727</v>
       </c>
       <c r="G72">
-        <v>0.04907680610476167</v>
+        <v>2.3977244754060187</v>
       </c>
       <c r="H72" t="str">
         <v/>
       </c>
       <c r="I72">
-        <v>0.4726657081378306</v>
+        <v>-1.1988622377030094</v>
       </c>
       <c r="J72" t="str">
         <v/>
       </c>
       <c r="K72">
-        <v>-0.024538403052380836</v>
+        <v>1.8888055150535064</v>
       </c>
       <c r="L72" t="str">
         <v/>
       </c>
       <c r="M72">
-        <v>0.10197238305088946</v>
+        <v>-1.3229896985677658</v>
       </c>
       <c r="N72" t="str">
         <v/>
@@ -3587,28 +3587,28 @@
         <v/>
       </c>
       <c r="F73">
-        <v>365.75757575757575</v>
+        <v>129.0909090909091</v>
       </c>
       <c r="G73">
-        <v>0.04503896286438041</v>
+        <v>2.326156005265363</v>
       </c>
       <c r="H73" t="str">
         <v/>
       </c>
       <c r="I73">
-        <v>-0.05731873762123852</v>
+        <v>-1.1630780026326815</v>
       </c>
       <c r="J73" t="str">
         <v/>
       </c>
       <c r="K73">
-        <v>-0.022519481432190205</v>
+        <v>2.0219797266934316</v>
       </c>
       <c r="L73" t="str">
         <v/>
       </c>
       <c r="M73">
-        <v>-0.04105312377384476</v>
+        <v>-1.1753563381130796</v>
       </c>
       <c r="N73" t="str">
         <v/>
@@ -3631,28 +3631,28 @@
         <v/>
       </c>
       <c r="F74">
-        <v>370.90909090909093</v>
+        <v>130.9090909090909</v>
       </c>
       <c r="G74">
-        <v>0.04133333720961561</v>
+        <v>2.2567237463411383</v>
       </c>
       <c r="H74" t="str">
         <v/>
       </c>
       <c r="I74">
-        <v>-0.1419391950715066</v>
+        <v>-1.1283618731705691</v>
       </c>
       <c r="J74" t="str">
         <v/>
       </c>
       <c r="K74">
-        <v>-0.020666668604807804</v>
+        <v>2.238755176248074</v>
       </c>
       <c r="L74" t="str">
         <v/>
       </c>
       <c r="M74">
-        <v>-0.04694348605011533</v>
+        <v>-1.095974687643209</v>
       </c>
       <c r="N74" t="str">
         <v/>
@@ -3675,28 +3675,28 @@
         <v/>
       </c>
       <c r="F75">
-        <v>376.06060606060606</v>
+        <v>132.72727272727272</v>
       </c>
       <c r="G75">
-        <v>0.037932595606790506</v>
+        <v>2.189363935940748</v>
       </c>
       <c r="H75" t="str">
         <v/>
       </c>
       <c r="I75">
-        <v>-0.09133097133880312</v>
+        <v>-1.094681967970374</v>
       </c>
       <c r="J75" t="str">
         <v/>
       </c>
       <c r="K75">
-        <v>-0.018966297803395253</v>
+        <v>1.0424416658006481</v>
       </c>
       <c r="L75" t="str">
         <v/>
       </c>
       <c r="M75">
-        <v>-0.01558768501385849</v>
+        <v>-1.0509793094257756</v>
       </c>
       <c r="N75" t="str">
         <v/>
@@ -3719,28 +3719,28 @@
         <v/>
       </c>
       <c r="F76">
-        <v>381.2121212121212</v>
+        <v>134.54545454545453</v>
       </c>
       <c r="G76">
-        <v>0.034811653416012237</v>
+        <v>2.1240147145920893</v>
       </c>
       <c r="H76" t="str">
         <v/>
       </c>
       <c r="I76">
-        <v>-0.3223398109640995</v>
+        <v>-1.0620073572960447</v>
       </c>
       <c r="J76" t="str">
         <v/>
       </c>
       <c r="K76">
-        <v>-0.017405826708006118</v>
+        <v>3.1743280288169053</v>
       </c>
       <c r="L76" t="str">
         <v/>
       </c>
       <c r="M76">
-        <v>0.008094617918667973</v>
+        <v>-1.189842998441001</v>
       </c>
       <c r="N76" t="str">
         <v/>
@@ -3763,28 +3763,28 @@
         <v/>
       </c>
       <c r="F77">
-        <v>386.3636363636364</v>
+        <v>136.36363636363637</v>
       </c>
       <c r="G77">
-        <v>0.031947489861189886</v>
+        <v>2.0606160692352833</v>
       </c>
       <c r="H77" t="str">
         <v/>
       </c>
       <c r="I77">
-        <v>0.6274158371913381</v>
+        <v>-1.0303080346176416</v>
       </c>
       <c r="J77" t="str">
         <v/>
       </c>
       <c r="K77">
-        <v>-0.015973744930594943</v>
+        <v>2.931816573608775</v>
       </c>
       <c r="L77" t="str">
         <v/>
       </c>
       <c r="M77">
-        <v>-0.06379973168411802</v>
+        <v>-1.1207916452666</v>
       </c>
       <c r="N77" t="str">
         <v/>
@@ -3807,28 +3807,28 @@
         <v/>
       </c>
       <c r="F78">
-        <v>391.5151515151515</v>
+        <v>138.1818181818182</v>
       </c>
       <c r="G78">
-        <v>0.029318978223578686</v>
+        <v>1.999109778110049</v>
       </c>
       <c r="H78" t="str">
         <v/>
       </c>
       <c r="I78">
-        <v>0.1432467691346265</v>
+        <v>-0.9995548890550245</v>
       </c>
       <c r="J78" t="str">
         <v/>
       </c>
       <c r="K78">
-        <v>-0.014659489111789343</v>
+        <v>1.5548756838434732</v>
       </c>
       <c r="L78" t="str">
         <v/>
       </c>
       <c r="M78">
-        <v>-0.018044003807763387</v>
+        <v>-1.0642189575862508</v>
       </c>
       <c r="N78" t="str">
         <v/>
@@ -3851,28 +3851,28 @@
         <v/>
       </c>
       <c r="F79">
-        <v>396.6666666666667</v>
+        <v>140</v>
       </c>
       <c r="G79">
-        <v>0.026906730006319955</v>
+        <v>1.939439357288101</v>
       </c>
       <c r="H79" t="str">
         <v/>
       </c>
       <c r="I79">
-        <v>0.5578033207366252</v>
+        <v>-0.9697196786440505</v>
       </c>
       <c r="J79" t="str">
         <v/>
       </c>
       <c r="K79">
-        <v>-0.013453365003159978</v>
+        <v>2.1472314987966454</v>
       </c>
       <c r="L79" t="str">
         <v/>
       </c>
       <c r="M79">
-        <v>0.13208836115918068</v>
+        <v>-1.1053397989475275</v>
       </c>
       <c r="N79" t="str">
         <v/>
@@ -3895,28 +3895,28 @@
         <v/>
       </c>
       <c r="F80">
-        <v>401.8181818181818</v>
+        <v>141.8181818181818</v>
       </c>
       <c r="G80">
-        <v>0.02469295192049946</v>
+        <v>1.881550008801477</v>
       </c>
       <c r="H80" t="str">
         <v/>
       </c>
       <c r="I80">
-        <v>-0.07884160499386156</v>
+        <v>-0.9407750044007385</v>
       </c>
       <c r="J80" t="str">
         <v/>
       </c>
       <c r="K80">
-        <v>-0.01234647596024973</v>
+        <v>1.6324068981794682</v>
       </c>
       <c r="L80" t="str">
         <v/>
       </c>
       <c r="M80">
-        <v>-0.00008666803520468794</v>
+        <v>-1.0665678592233723</v>
       </c>
       <c r="N80" t="str">
         <v/>
@@ -3939,28 +3939,28 @@
         <v/>
       </c>
       <c r="F81">
-        <v>406.969696969697</v>
+        <v>143.63636363636363</v>
       </c>
       <c r="G81">
-        <v>0.02266131463782034</v>
+        <v>1.8253885703191615</v>
       </c>
       <c r="H81" t="str">
         <v/>
       </c>
       <c r="I81">
-        <v>0.6063778054654907</v>
+        <v>-0.9126942851595807</v>
       </c>
       <c r="J81" t="str">
         <v/>
       </c>
       <c r="K81">
-        <v>-0.01133065731891017</v>
+        <v>2.2430302040156422</v>
       </c>
       <c r="L81" t="str">
         <v/>
       </c>
       <c r="M81">
-        <v>-0.044049485669022975</v>
+        <v>-0.711037433847518</v>
       </c>
       <c r="N81" t="str">
         <v/>
@@ -3983,28 +3983,28 @@
         <v/>
       </c>
       <c r="F82">
-        <v>412.1212121212121</v>
+        <v>145.45454545454547</v>
       </c>
       <c r="G82">
-        <v>0.02079683234178116</v>
+        <v>1.7709034663257754</v>
       </c>
       <c r="H82" t="str">
         <v/>
       </c>
       <c r="I82">
-        <v>-0.4216473240903833</v>
+        <v>-0.8854517331628877</v>
       </c>
       <c r="J82" t="str">
         <v/>
       </c>
       <c r="K82">
-        <v>-0.01039841617089058</v>
+        <v>2.958010748445674</v>
       </c>
       <c r="L82" t="str">
         <v/>
       </c>
       <c r="M82">
-        <v>-0.02876954589490485</v>
+        <v>-0.8459446185261409</v>
       </c>
       <c r="N82" t="str">
         <v/>
@@ -4027,28 +4027,28 @@
         <v/>
       </c>
       <c r="F83">
-        <v>417.27272727272725</v>
+        <v>147.27272727272728</v>
       </c>
       <c r="G83">
-        <v>0.01908575218890104</v>
+        <v>1.718044660757526</v>
       </c>
       <c r="H83" t="str">
         <v/>
       </c>
       <c r="I83">
-        <v>-0.6615667750832406</v>
+        <v>-0.859022330378763</v>
       </c>
       <c r="J83" t="str">
         <v/>
       </c>
       <c r="K83">
-        <v>-0.00954287609445052</v>
+        <v>3.0914895052633455</v>
       </c>
       <c r="L83" t="str">
         <v/>
       </c>
       <c r="M83">
-        <v>-0.014623822220426023</v>
+        <v>-0.8736159059587028</v>
       </c>
       <c r="N83" t="str">
         <v/>
@@ -4071,28 +4071,28 @@
         <v/>
       </c>
       <c r="F84">
-        <v>422.42424242424244</v>
+        <v>149.0909090909091</v>
       </c>
       <c r="G84">
-        <v>0.01751545286463288</v>
+        <v>1.6667636110518804</v>
       </c>
       <c r="H84" t="str">
         <v/>
       </c>
       <c r="I84">
-        <v>-0.029158449970019082</v>
+        <v>-0.8333818055259402</v>
       </c>
       <c r="J84" t="str">
         <v/>
       </c>
       <c r="K84">
-        <v>-0.00875772643231644</v>
+        <v>1.761485883895469</v>
       </c>
       <c r="L84" t="str">
         <v/>
       </c>
       <c r="M84">
-        <v>-0.0230618880354947</v>
+        <v>-0.8937840095366586</v>
       </c>
       <c r="N84" t="str">
         <v/>
@@ -4115,28 +4115,28 @@
         <v/>
       </c>
       <c r="F85">
-        <v>427.57575757575756</v>
+        <v>150.9090909090909</v>
       </c>
       <c r="G85">
-        <v>0.016074351485690204</v>
+        <v>1.6170132235688073</v>
       </c>
       <c r="H85" t="str">
         <v/>
       </c>
       <c r="I85">
-        <v>0.047734495716553506</v>
+        <v>-0.8085066117844036</v>
       </c>
       <c r="J85" t="str">
         <v/>
       </c>
       <c r="K85">
-        <v>-0.008037175742845102</v>
+        <v>2.3687662352772776</v>
       </c>
       <c r="L85" t="str">
         <v/>
       </c>
       <c r="M85">
-        <v>-0.05170273647037121</v>
+        <v>-0.7970231273123587</v>
       </c>
       <c r="N85" t="str">
         <v/>
@@ -4159,28 +4159,28 @@
         <v/>
       </c>
       <c r="F86">
-        <v>432.72727272727275</v>
+        <v>152.72727272727272</v>
       </c>
       <c r="G86">
-        <v>0.014751818162077896</v>
+        <v>1.5687478103426133</v>
       </c>
       <c r="H86" t="str">
         <v/>
       </c>
       <c r="I86">
-        <v>-0.1579082347574838</v>
+        <v>-0.7843739051713067</v>
       </c>
       <c r="J86" t="str">
         <v/>
       </c>
       <c r="K86">
-        <v>-0.007375909081038948</v>
+        <v>1.3253945751649145</v>
       </c>
       <c r="L86" t="str">
         <v/>
       </c>
       <c r="M86">
-        <v>0.05552799417842943</v>
+        <v>-0.9614045360930572</v>
       </c>
       <c r="N86" t="str">
         <v/>
@@ -4203,28 +4203,28 @@
         <v/>
       </c>
       <c r="F87">
-        <v>437.8787878787879</v>
+        <v>154.54545454545453</v>
       </c>
       <c r="G87">
-        <v>0.013538097588617435</v>
+        <v>1.5219230471246825</v>
       </c>
       <c r="H87" t="str">
         <v/>
       </c>
       <c r="I87">
-        <v>0.013043318038846735</v>
+        <v>-0.7609615235623413</v>
       </c>
       <c r="J87" t="str">
         <v/>
       </c>
       <c r="K87">
-        <v>-0.0067690487943087175</v>
+        <v>0.8186867966250156</v>
       </c>
       <c r="L87" t="str">
         <v/>
       </c>
       <c r="M87">
-        <v>-0.10218022298945907</v>
+        <v>-0.602497949446386</v>
       </c>
       <c r="N87" t="str">
         <v/>
@@ -4247,28 +4247,28 @@
         <v/>
       </c>
       <c r="F88">
-        <v>443.030303030303</v>
+        <v>156.36363636363637</v>
       </c>
       <c r="G88">
-        <v>0.01242423708760743</v>
+        <v>1.4764959326785674</v>
       </c>
       <c r="H88" t="str">
         <v/>
       </c>
       <c r="I88">
-        <v>0.4507234331791168</v>
+        <v>-0.7382479663392837</v>
       </c>
       <c r="J88" t="str">
         <v/>
       </c>
       <c r="K88">
-        <v>-0.006212118543803715</v>
+        <v>2.8888477373622647</v>
       </c>
       <c r="L88" t="str">
         <v/>
       </c>
       <c r="M88">
-        <v>0.022365115043747774</v>
+        <v>-0.6194273688403703</v>
       </c>
       <c r="N88" t="str">
         <v/>
@@ -4291,28 +4291,28 @@
         <v/>
       </c>
       <c r="F89">
-        <v>448.1818181818182</v>
+        <v>158.1818181818182</v>
       </c>
       <c r="G89">
-        <v>0.011402020571846375</v>
+        <v>1.432424749290071</v>
       </c>
       <c r="H89" t="str">
         <v/>
       </c>
       <c r="I89">
-        <v>-0.23810552202462693</v>
+        <v>-0.7162123746450355</v>
       </c>
       <c r="J89" t="str">
         <v/>
       </c>
       <c r="K89">
-        <v>-0.005701010285923187</v>
+        <v>2.7711725449808333</v>
       </c>
       <c r="L89" t="str">
         <v/>
       </c>
       <c r="M89">
-        <v>-0.0019617966144575036</v>
+        <v>-0.802910625117751</v>
       </c>
       <c r="N89" t="str">
         <v/>
@@ -4335,28 +4335,28 @@
         <v/>
       </c>
       <c r="F90">
-        <v>453.3333333333333</v>
+        <v>160</v>
       </c>
       <c r="G90">
-        <v>0.010463907940913553</v>
+        <v>1.3896690244560308</v>
       </c>
       <c r="H90" t="str">
         <v/>
       </c>
       <c r="I90">
-        <v>-0.15121351111259584</v>
+        <v>-0.6948345122280154</v>
       </c>
       <c r="J90" t="str">
         <v/>
       </c>
       <c r="K90">
-        <v>-0.005231953970456777</v>
+        <v>1.9952125504829463</v>
       </c>
       <c r="L90" t="str">
         <v/>
       </c>
       <c r="M90">
-        <v>0.02342217501313197</v>
+        <v>-0.8067763359859504</v>
       </c>
       <c r="N90" t="str">
         <v/>
@@ -4379,28 +4379,28 @@
         <v/>
       </c>
       <c r="F91">
-        <v>458.4848484848485</v>
+        <v>161.8181818181818</v>
       </c>
       <c r="G91">
-        <v>0.009602979463681402</v>
+        <v>1.3481894937166474</v>
       </c>
       <c r="H91" t="str">
         <v/>
       </c>
       <c r="I91">
-        <v>0.5086266115175597</v>
+        <v>-0.6740947468583237</v>
       </c>
       <c r="J91" t="str">
         <v/>
       </c>
       <c r="K91">
-        <v>-0.004801489731840701</v>
+        <v>0.08561481554161032</v>
       </c>
       <c r="L91" t="str">
         <v/>
       </c>
       <c r="M91">
-        <v>0.00015378414510158842</v>
+        <v>-0.46514748489835744</v>
       </c>
       <c r="N91" t="str">
         <v/>
@@ -4423,28 +4423,28 @@
         <v/>
       </c>
       <c r="F92">
-        <v>463.6363636363636</v>
+        <v>163.63636363636363</v>
       </c>
       <c r="G92">
-        <v>0.008812884736812372</v>
+        <v>1.3079480645972041</v>
       </c>
       <c r="H92" t="str">
         <v/>
       </c>
       <c r="I92">
-        <v>-0.2622148107221526</v>
+        <v>-0.6539740322986021</v>
       </c>
       <c r="J92" t="str">
         <v/>
       </c>
       <c r="K92">
-        <v>-0.004406442368406186</v>
+        <v>0.022891136852547067</v>
       </c>
       <c r="L92" t="str">
         <v/>
       </c>
       <c r="M92">
-        <v>0.11413975013169012</v>
+        <v>-0.7156271217575327</v>
       </c>
       <c r="N92" t="str">
         <v/>
@@ -4467,28 +4467,28 @@
         <v/>
       </c>
       <c r="F93">
-        <v>468.7878787878788</v>
+        <v>165.45454545454547</v>
       </c>
       <c r="G93">
-        <v>0.008087795842746293</v>
+        <v>1.268907781626074</v>
       </c>
       <c r="H93" t="str">
         <v/>
       </c>
       <c r="I93">
-        <v>0.16989773350045548</v>
+        <v>-0.634453890813037</v>
       </c>
       <c r="J93" t="str">
         <v/>
       </c>
       <c r="K93">
-        <v>-0.0040438979213731465</v>
+        <v>0.34155454680868846</v>
       </c>
       <c r="L93" t="str">
         <v/>
       </c>
       <c r="M93">
-        <v>-0.041050766872703044</v>
+        <v>-0.7456998674561797</v>
       </c>
       <c r="N93" t="str">
         <v/>
@@ -4511,28 +4511,28 @@
         <v/>
       </c>
       <c r="F94">
-        <v>473.93939393939394</v>
+        <v>167.27272727272728</v>
       </c>
       <c r="G94">
-        <v>0.007422364361661216</v>
+        <v>1.231032792396891</v>
       </c>
       <c r="H94" t="str">
         <v/>
       </c>
       <c r="I94">
-        <v>-0.2428844022904152</v>
+        <v>-0.6155163961984454</v>
       </c>
       <c r="J94" t="str">
         <v/>
       </c>
       <c r="K94">
-        <v>-0.003711182180830608</v>
+        <v>0.1735987247069375</v>
       </c>
       <c r="L94" t="str">
         <v/>
       </c>
       <c r="M94">
-        <v>-0.03045203345299886</v>
+        <v>-0.7484457467014886</v>
       </c>
       <c r="N94" t="str">
         <v/>
@@ -4555,28 +4555,28 @@
         <v/>
       </c>
       <c r="F95">
-        <v>479.09090909090907</v>
+        <v>169.0909090909091</v>
       </c>
       <c r="G95">
-        <v>0.00681168192031806</v>
+        <v>1.1942883146437053</v>
       </c>
       <c r="H95" t="str">
         <v/>
       </c>
       <c r="I95">
-        <v>-0.5401204454905199</v>
+        <v>-0.5971441573218527</v>
       </c>
       <c r="J95" t="str">
         <v/>
       </c>
       <c r="K95">
-        <v>-0.00340584096015903</v>
+        <v>1.2601858434369249</v>
       </c>
       <c r="L95" t="str">
         <v/>
       </c>
       <c r="M95">
-        <v>-0.010532559049324885</v>
+        <v>-0.5953022697343304</v>
       </c>
       <c r="N95" t="str">
         <v/>
@@ -4599,28 +4599,28 @@
         <v/>
       </c>
       <c r="F96">
-        <v>484.24242424242425</v>
+        <v>170.9090909090909</v>
       </c>
       <c r="G96">
-        <v>0.006251243986788494</v>
+        <v>1.1586406042989048</v>
       </c>
       <c r="H96" t="str">
         <v/>
       </c>
       <c r="I96">
-        <v>-0.13937337570513972</v>
+        <v>-0.5793203021494524</v>
       </c>
       <c r="J96" t="str">
         <v/>
       </c>
       <c r="K96">
-        <v>-0.003125621993394247</v>
+        <v>2.0330374252969445</v>
       </c>
       <c r="L96" t="str">
         <v/>
       </c>
       <c r="M96">
-        <v>-0.1276088279229762</v>
+        <v>-0.6249060845407192</v>
       </c>
       <c r="N96" t="str">
         <v/>
@@ -4643,28 +4643,28 @@
         <v/>
       </c>
       <c r="F97">
-        <v>489.3939393939394</v>
+        <v>172.72727272727272</v>
       </c>
       <c r="G97">
-        <v>0.005736916644007753</v>
+        <v>1.1240569245045553</v>
       </c>
       <c r="H97" t="str">
         <v/>
       </c>
       <c r="I97">
-        <v>-0.7013135280565782</v>
+        <v>-0.5620284622522776</v>
       </c>
       <c r="J97" t="str">
         <v/>
       </c>
       <c r="K97">
-        <v>-0.0028684583220038766</v>
+        <v>1.7585616730327103</v>
       </c>
       <c r="L97" t="str">
         <v/>
       </c>
       <c r="M97">
-        <v>-0.1294560970254301</v>
+        <v>-0.4243545814586447</v>
       </c>
       <c r="N97" t="str">
         <v/>
@@ -4687,28 +4687,28 @@
         <v/>
       </c>
       <c r="F98">
-        <v>494.54545454545456</v>
+        <v>174.54545454545453</v>
       </c>
       <c r="G98">
-        <v>0.005264906097066515</v>
+        <v>1.0905055155487038</v>
       </c>
       <c r="H98" t="str">
         <v/>
       </c>
       <c r="I98">
-        <v>0.06540844661286822</v>
+        <v>-0.5452527577743519</v>
       </c>
       <c r="J98" t="str">
         <v/>
       </c>
       <c r="K98">
-        <v>-0.0026324530485332576</v>
+        <v>1.2861701913027583</v>
       </c>
       <c r="L98" t="str">
         <v/>
       </c>
       <c r="M98">
-        <v>0.09091461783273784</v>
+        <v>-0.7121436222904671</v>
       </c>
       <c r="N98" t="str">
         <v/>
@@ -4731,28 +4731,28 @@
         <v/>
       </c>
       <c r="F99">
-        <v>499.6969696969697</v>
+        <v>176.36363636363637</v>
       </c>
       <c r="G99">
-        <v>0.004831730689320906</v>
+        <v>1.0579555656990434</v>
       </c>
       <c r="H99" t="str">
         <v/>
       </c>
       <c r="I99">
-        <v>0.24735921093087476</v>
+        <v>-0.5289777828495217</v>
       </c>
       <c r="J99" t="str">
         <v/>
       </c>
       <c r="K99">
-        <v>-0.002415865344660453</v>
+        <v>2.3905211073768236</v>
       </c>
       <c r="L99" t="str">
         <v/>
       </c>
       <c r="M99">
-        <v>0.12787322079459754</v>
+        <v>-0.4099363501239466</v>
       </c>
       <c r="N99" t="str">
         <v/>
@@ -4775,28 +4775,28 @@
         <v/>
       </c>
       <c r="F100">
-        <v>504.8484848484849</v>
+        <v>178.1818181818182</v>
       </c>
       <c r="G100">
-        <v>0.004434195220904913</v>
+        <v>1.026377182907146</v>
       </c>
       <c r="H100" t="str">
         <v/>
       </c>
       <c r="I100">
-        <v>-0.6248705051441767</v>
+        <v>-0.513188591453573</v>
       </c>
       <c r="J100" t="str">
         <v/>
       </c>
       <c r="K100">
-        <v>-0.0022170976104524563</v>
+        <v>-0.41063336293144026</v>
       </c>
       <c r="L100" t="str">
         <v/>
       </c>
       <c r="M100">
-        <v>0.11287333017175459</v>
+        <v>-0.7648427951945324</v>
       </c>
       <c r="N100" t="str">
         <v/>
@@ -4819,28 +4819,28 @@
         <v/>
       </c>
       <c r="F101">
-        <v>510</v>
+        <v>180</v>
       </c>
       <c r="G101">
-        <v>0.004069367380212884</v>
+        <v>0.9957413673572789</v>
       </c>
       <c r="H101" t="str">
         <v/>
       </c>
       <c r="I101">
-        <v>-0.4082213550981686</v>
+        <v>-0.49787068367863946</v>
       </c>
       <c r="J101" t="str">
         <v/>
       </c>
       <c r="K101">
-        <v>-0.002034683690106442</v>
+        <v>1.324950424767589</v>
       </c>
       <c r="L101" t="str">
         <v/>
       </c>
       <c r="M101">
-        <v>-0.006047570980447075</v>
+        <v>-0.31382522685477254</v>
       </c>
       <c r="N101" t="str">
         <v/>
